--- a/database/m4/Miniboss.xlsx
+++ b/database/m4/Miniboss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,218 +458,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Colon Commander</t>
+          <t>Golden Coryn (2020)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Lv
-33
-Type-HP
-22000
-ElementFireExp
-440
+105
+Type-HP
+10000
+ElementNeutralExp
+20
 TamableNo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Strum Road</t>
+          <t>Rakau Plains</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[Usable]Revita I
-[Additional]Colon Met
-[Armor]Adventurer's Garb2BC
-[Material]Bundled Leaves
-[Material]Split Wooden Helm
-[Material]Colon Skin
-[Armor Crysta]Colon Commander</t>
+[Usable]Apple
+[Additional]HeadbandA21C
+[Additional]Mage HatAB25
+[Additional]Ribbon1BC
+[Armor]Adventurer's GarbAB5
+[Armor]Adventurer's GarbA61C
+[Armor]Adventurer's Garb37BC
+[Material]Golden Apple</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>June Bride Event (all mini boss)</t>
+          <t>Odelon Machina</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Lv
-0
-Type-HP
-0
-ElementNeutralExp
-0
+146
+Type-HPUnknownElementLightExp
+21357
 TamableNo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>Large Demi Machina Factory: Area 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[Usable]Bride Box
-[Usable]Groom Box</t>
+[2 Handed Sword]Lezvie
+[Material]Strange Skin
+[Material]Huge Eyeball
+[Material]Magic Lens
+[Material]Tough Tentacle
+[Normal Crysta]Odelon Machina</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Silver Roar</t>
+          <t>Persimmon Coryn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>Lv
-42
-Type-HP
-14570
-ElementWaterExp
-590
-TamableNo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Debakcy Channel: B1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-[Additional]Crystal Earrings
-[Armor]Adventurer's GarbAB1
-[Material]Bead Fragment
-[Material]Fairy Feather
-[Normal Crysta]Silver Roar</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Miracle Potum</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lv
-42
-Type-HP
-29000
-ElementLightExp
-600
-TamableNo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ruined Temple: Area 2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-[Usable]Save Point
-[Usable]Hard Apple
-[Armor]Adventurer's GarbABC
-[Material]Potum Nail
-[Staff]Morning Star
-[Weapon Crysta]Miracle Potum</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>King Potum</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lv
-50
-Type-HP
-8000
-ElementNeutralExp
-320
-TamableNo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Athema Ruins: Area 1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-[Usable]Hard Apple
-[Additional]Hair Band
-[Material]Bead Fragment
-[Material]Potum Nail
-[Normal Crysta]King Potum</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Crimsosh</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lv
-37
-Type-HP
-22500
-ElementFireExp
-500
-TamableNo</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Athema Ruins: Area 2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-[Additional]Dawn Hat
-[Armor]Adventurer's GarbABC
-[Normal Crysta]Crimsosch</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Persimmon Coryn</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
         <is>
           <t>Lv
 25
 Type-HPUnknownElementLightExpUnknownTamableNo</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Rakau Plains</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 [Usable]Baked Sweet Potato
@@ -697,13 +569,2858 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Golden Potum (10M DL)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatA62C
+[Additional]Potum HatA84C
+[Additional]Potum Hat54BC
+[Additional]Potum HatAB54
+[Additional]Potum HatA11C
+[Additional]Potum HatAB38
+[Additional]Potum Hat53BC
+[Additional]Potum HatAB20
+[Additional]Potum Hat1BC
+[Armor]Adventurer's GarbA5C
+[Armor]Adventurer's Garb48BC
+[Armor]Adventurer's GarbA16C
+[Armor]Adventurer's GarbAB37
+[Armor]Adventurer's Garb6BC
+[Armor]Adventurer's GarbAB20
+[Armor]Adventurer's Garb1BC
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Golden Potum (8M DL)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatA48C
+[Additional]Potum HatAB46
+[Additional]Potum HatA84C
+[Armor]Adventurer's GarbAB65
+[Armor]Adventurer's Garb51BC
+[Armor]Adventurer's GarbA51C
+[Armor]Adventurer's GarbAB56
+[Armor]Adventurer's GarbA58C
+[Armor]Adventurer's Garb11BC
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Big Coryn</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lv
+60
+Type-HPUnknownElementLightExp
+1730
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Douce Hamlet</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Refinement Support]Magic Hammer
+[Additional]Flower Headband
+[Armor]Adventurer's GarbABC
+[Material]Young Branch
+[Material]Plant Skin
+[Normal Crysta]Big Coryn</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Volotur</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lv
+160
+Type-HPUnknownElementDarkExp
+24024
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Suburb of Droma Square: Area 3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Devil Circlet
+[Material]Spiky Fang
+[Material]Cursed Secret Soul
+[Material]Biting Head
+[Enhancer Crysta (Blue)]Volotur</t>
+        </is>
+      </c>
+    </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Lyark Master Specialist</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lv
+157
+Type-HPUnknownElementWindExp
+19089
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Brahe Laboratory: 2nd Building</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Lyark Tranquilizer
+[Material]Ox Fabric
+[Material]Soldier Leader's Badge
+[Enhancer Crysta (Blue)]Lyark Master Specialist</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Golden Potum (12M DL)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Iris Armor</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gopherga</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lv
+207
+Type-HPUnknownElementWaterExp
+70000
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Underwater Ruins</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Mysterious Clam
+[Material]Super Heavy Shell
+[Ore]Orichalcum Ore
+[Armor Crysta]Gopherga</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lilicarolla</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lv
+278
+Type-HP
+14480000
+ElementDarkExp
+57750
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Frozen Falls: Area 1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Geometric Petal
+[Material]Hexagonal Crystal
+[Material]Strange Needle Arm
+[Enhancer Crysta (Blue)]Lilicarolla</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2018)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]RibbonA5C
+[Additional]RibbonA38C
+[Additional]Ribbon42BC
+[Armor]Adventurer's GarbAB5
+[Armor]Adventurer's Garb38BC
+[Armor]Adventurer's GarbAB1
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Metal Stinger</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lv
+82
+Type-HPUnknownElementEarthExp
+4050
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Akaku Desert: Area 1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Scorpion Tail
+[Material]Hard Scissor
+[Material]Sand Pyroxene
+[Normal Crysta]Metal Stinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Blazingur</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lv
+245
+Type-HPUnknownElementFireExp
+43740
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Divido Valley: Area 3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Fire Bandana
+[Material]Red Claw
+[Material]Bloody Stone
+[Material]Blazing Mane
+[Enhancer Crysta (Blue)]Blazingur</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Miracle Potum</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lv
+42
+Type-HP
+29000
+ElementLightExp
+600
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ruined Temple: Area 2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Save Point
+[Usable]Hard Apple
+[Armor]Adventurer's GarbABC
+[Material]Potum Nail
+[Staff]Morning Star
+[Weapon Crysta]Miracle Potum</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2018)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]RibbonAB42
+[Additional]Ribbon1BC
+[Additional]RibbonA1C
+[Armor]Adventurer's Garb50BC
+[Armor]Adventurer's GarbAB50
+[Armor]Adventurer's GarbA1C
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Charugon</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lv
+275
+Type-HP
+19100000
+ElementFireExp
+76600
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Boma Konda: Underground Area</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[2 Handed Sword]Dragon Slasher
+[Material]Hot Dragon Scale
+[Material]Inferno Sac
+[Material]Burnt Wood Board
+[Enhancer Crysta (Blue)]Charugon</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Moonlight Potum</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lv
+72
+Type-HPUnknownElementDarkExp
+1860
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>New Moon Palace: Innermost</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Armor]Adventurer's GarbABC
+[Knuckles]Drills
+[Material]Moonlight Flower
+[Material]Potum Nail
+[Weapon Crysta]Moonlight Potum</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Golden Potum (6M DL)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatA4C
+[Additional]Potum Hat3BC
+[Additional]Potum Hat2BC
+[Additional]Potum HatA2C
+[Armor]Adventurer's Garb82BC
+[Armor]Adventurer's GarbA82C
+[Armor]Adventurer's Garb4BC
+[Armor]Adventurer's GarbAB19
+[Armor]Adventurer's Garb38BC
+[Armor]Adventurer's GarbA20C
+[Armor]Adventurer's Garb42BC
+[Armor]Adventurer's GarbA42C
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2019)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lv
+103
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Mage HatAB28
+[Additional]Ribbon25BC
+[Additional]HeadbandA1C
+[Armor]Adventurer's Garb5BC
+[Armor]Adventurer's GarbA37C
+[Armor]Adventurer's GarbAB41
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Trus</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lv
+269
+Type-HP
+12800000
+ElementFireExp
+98000
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Propulsion System Zone: Power Tank</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Small Wing
+[Material]Scorching Core
+[Material]Hot Glass
+[Special Crysta]Trus</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>June Bride Event (all mini boss)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lv
+0
+Type-HP
+0
+ElementNeutralExp
+0
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Bride Box
+[Usable]Groom Box</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Solopy</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lv
+169
+Type-HPUnknownElementEarthExp
+23835
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Turnus Mine: Area 3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Tasty Mushroom
+[Material]Tweed Fabric
+[Material]Turnus Crystal
+[Special]Hallucination Spore
+[Enhancer Crysta (Yellow)]Solopy</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Golden Potum (6M DL)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum Hat4BC
+[Additional]Potum HatAB4
+[Additional]Potum HatAB3
+[Additional]Potum HatAB38
+[Armor]Adventurer's Garb50BC
+[Armor]Adventurer's GarbAB4
+[Armor]Adventurer's GarbA51C
+[Armor]Adventurer's Garb54BC
+[Armor]Adventurer's Garb2BC
+[Armor]Adventurer's GarbAB2
+[Armor]Adventurer's GarbA38C
+[Armor]Adventurer's GarbAB52
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Golden Potum (11M DL)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Revita II
+[Refinement Support]Refinement Powder
+[Refinement Support]Super Refinement Powder
+[Refinement Support]Hyper Refinement Powder
+[Additional]Potum Hat505183
+[Additional]Potum Hat24948
+[Additional]Potum Hat191619
+[Additional]Potum Hat5356
+[Armor]Adventurer's Garb485049
+[Armor]Adventurer's Garb67664
+[Armor]Adventurer's Garb6484
+[Armor]Adventurer's Garb5415
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Wiltileaf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Lv
+305
+Type-HP
+0
+ElementFireExp
+6538
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Eumano Village Ruins: Area 2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Bow]Lyre Bow
+[Material]Tangled Roots
+[Material]Old Tree Sap
+[Material]Spiral Tree Bark
+[Enhancer Crysta (Blue)]Wiltileaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Arbogazella</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lv
+236
+Type-HPUnknownElementWindExp
+41820
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Guardian Forest: Lost Woods</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Star Fruit
+[Arrow]Guardian Forest Arrow
+[Material]Sharp Wooden Horn
+[Material]Sacred Forest Sound
+[Weapon Crysta]Arbogazella</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Golden Potum (12M DL)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Iris Armor</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Seltirios</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Lv
+60
+Type-HP
+60000
+ElementDarkExp
+960
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Aulada Ancient Tower</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Vampire Cape
+[Material]Crimson Claw
+[Material]Red Crystal Stone Fragment
+[Material]Little Wyvern Wing
+[Additional Crysta]Seltirios</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Arcoiris</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lv
+70
+Type-HPUnknownElementNeutralExp
+2400
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Feather Cape
+[Armor]Adventurer's Garb222746
+[Material]Bead Fragment
+[Material]Rainbow Feather
+[Material]Bird Wing
+[Armor Crysta]Arcoiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Evil Magic Sword</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lv
+134
+Type-HP
+30
+ElementDarkExp
+19123
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Singolare Ruins: 2nd Floor</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Crooked Blade
+[Material]Evil Blade
+[Material]Greatly Evil Blade
+[Weapon Crysta]Evil Magic Sword</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Death Colon</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lv
+84
+Type-HPUnknownElementDarkExp
+4620
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Vyshed the Tainted Land: Area 2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Afro Wig
+[Armor]Adventurer's GarbAB54
+[Material]Decayed Branch
+[Material]Withered Leaf
+[Material]Rotten Colon Skin
+[Ore]Mithril Ore
+[Weapon Crysta]Death Colon</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Radibat</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lv
+200
+Type-HPUnknownElementEarthExp
+44880
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Zarth's Mansion: Study</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Flower Nectar (Bouquet)
+[Usable]Ginger Cake
+[Usable]Barmbrack
+[Usable]Zombie Cake
+[Usable]Pumpkin Cookie
+[Usable]Jack Pudding
+[Usable]Pumpkin Candy
+[Usable]Pumpkin Soup
+[Additional]Magical Skirt
+[Normal Crysta]Radibat</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Gigant Knight</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lv
+76
+Type-HPUnknownElementEarthExp
+2680
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Saham Crater</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[1 Handed Sword]Tomahawk
+[Armor]Adventurer's GarbABC
+[Material]Hard Stone
+[Ore]Damascus Ore
+[Normal Crysta]Gigant Knight</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fanadon</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Lv
+171
+Type-HPUnknownElementNeutralExp
+24360
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Curonne Forest: North Area 2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Lizard Dango
+[Material]Split Mask
+[Material]Lizard Spirit Stone
+[Normal Crysta]Fanadon</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Goldenia</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lv
+187
+Type-HPUnknownElementWindExp
+27930
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Elf Mountains: Area 3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Glossy Black Leather
+[Material]Golden Stinging Hair
+[Material]Spiky Horns
+[Additional Crysta]Goldenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Violacoon</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Lv
+80
+Type-HP
+450000
+ElementEarthExp
+5472
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Flower Nectar
+[Additional]Hero Scarf
+[Material]Bear Fur
+[Material]Sharp Bear Claw
+[Special Crysta]Violaccoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Golden Potum (3M DL)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Ribbon5BC
+[Additional]RibbonA50C
+[Additional]RibbonAB50
+[Additional]RibbonA1C
+[Armor]Adventurer's Garb5BC
+[Armor]Adventurer's GarbA50C
+[Armor]Adventurer's GarbAB50
+[Armor]Adventurer's GarbAB4
+[Armor]Adventurer's Garb38BC
+[Armor]Adventurer's GarbA1C
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Silver Coryn (2021)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+100
+ElementNeutralExp
+1
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Warrior Helm72BC
+[Additional]Mage HatA72C
+[Additional]Scholar's GlassesAB72
+[Additional]Mage HatA38C
+[Additional]Warrior Helm42BC
+[Additional]Scholar's GlassesAB42
+[Armor]Plate Armor234
+[Material]Silver Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Persimmon Coryn</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Lv
+125
+Type-HP
+5000
+ElementUnknownExp
+1410
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tolbas GrassLand</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Dried Persimon
+[Usable]Salt-Grilled Saury
+[Usable]Matsutake Soup
+[Usable]Baked Sweet Potato
+[Usable]Mashed Sweet Potato
+[Usable]Ginkgo Nut Rice
+[Additional]Market Hat38BC
+[Additional]Market HatAB38
+[Additional]Market Hat39BC
+[Additional]Market HatA39C
+[Additional]Market HatA40C
+[Additional]Market HatAB40
+[Additional]Market Hat41BC
+[Additional]Market HatA42C
+[Material]Fallen in Fall</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Golden Potum (11M DL)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Tolbas GrassLand</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Revita VI
+[Refinement Support]Refinement Powder
+[Refinement Support]Hyper Refinement Powder
+[Refinement Support]Super Refinement Powder
+[Additional]Potum Hat844834
+[Additional]Potum Hat528137
+[Additional]Potum Hat35654
+[Additional]Potum Hat215121
+[Armor]Adventurer's Garb504881
+[Armor]Adventurer's Garb48467
+[Armor]Adventurer's Garb526434
+[Armor]Adventurer's Garb1548
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Metal Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Golden Potum (9M DL)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum Hat5BC
+[Additional]Potum Hat82BC
+[Additional]Potum HatA4C
+[Additional]Potum HatA38C
+[Armor]Adventurer's Garb44BC
+[Armor]Adventurer's GarbA4C
+[Armor]Adventurer's GarbAB38
+[Armor]Adventurer's GarbAB37
+[Armor]Adventurer's GarbA36C
+[Armor]Adventurer's GarbAB1
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2018)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Ribbon5BC
+[Additional]Ribbon38BC
+[Additional]RibbonAB1
+[Armor]Adventurer's Garb5BC
+[Armor]Adventurer's GarbA50C
+[Armor]Adventurer's Garb1BC
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Armasite</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Lv
+201
+Type-HPUnknownElementFireExp
+33330
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Fractum Sector: Area 1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Mutated Plant Thorn
+[Material]Amethyst Flower
+[Material]Corroded Stem
+[Weapon Crysta]Armasite</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Capten Amiya</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Lv
+227
+Type-HPUnknownElementLightExp
+65300
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Underwater Canyon: Area 3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Sweet Shrimp
+[Material]Seabed Crystal Stone
+[Material]Lovely Bubble
+[Special Crysta]Captain Amiya</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Illuminitor</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Lv
+250
+Type-HPUnknownElementWaterExp
+45300
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Illuminare City: Route 1 (210-230)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Silver Star Ornament
+[Material]Cold Scrap
+[Ore]Mithril Ore
+[Normal Crysta]Illuminitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Bloodie Crystal</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Lv
+207
+Type-HPUnknownElementDarkExp
+34280
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Avant Plastida: Area 1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Perilous Essence
+[Material]Blood Crystal
+[Material]Blood Red Gemstone
+[Enhancer Crysta (Red)]Blood Smeared Crystal</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Altoblepas</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Lv
+174
+Type-HPUnknownElementNeutralExp
+27500
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rokoko Plains</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Bowgun]Double Barrel
+[Material]Vocal Sac
+[Material]Squawker Horn
+[Material]Cracked Hunting Horn
+[Additional Crysta]Altoblepas</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Tardigrademon</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Lv
+213
+Type-HPUnknownElementFireExp
+38157
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Old Lufenas Mansion Ruins</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Tardigrande Skin
+[Material]Chitinous Crimson Sphere
+[Material]Corroded Tail Thorn
+[Enhancer Crysta (Yellow)]Tardigrandemon</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Capo Profundo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Lv
+287
+Type-HP
+15800000
+ElementWaterExp
+60500
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Abandoned District: Area 3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[1 Handed Sword]Mace Sword
+[Material]Sharp Caudal Fin
+[Material]Abyssal Creature Fang
+[Material]Abyssal Kelp
+[Enhancer Crysta (Green)]Capo Profundo</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Golden Potum (5M DL)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatA5C
+[Additional]Potum Hat71BC
+[Additional]Potum HatA19C
+[Additional]Potum HatA21C
+[Armor]Adventurer's Garb49BC
+[Armor]Adventurer's GarbA71C
+[Armor]Adventurer's Garb38BC
+[Armor]Adventurer's GarbA37C
+[Armor]Adventurer's GarbA20C
+[Armor]Adventurer's GarbA9C
+[Armor]Adventurer's GarbA1C
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2020)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Lv
+106
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Ribbon5BC
+[Additional]HeadbandA28C
+[Additional]Mage HatAB21
+[Armor]Adventurer's GarbAB61
+[Armor]Adventurer's Garb41BC
+[Armor]Adventurer's GarbA1C
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Glaucius</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lv
+248
+Type-HPUnknownElementDarkExp
+44670
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Arstida: Area 2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Strange Claw
+[Material]Mutated Sphere Core
+[Material]Dangerous Cnidoblast
+[Enhancer Crysta (Green)]Glaucius</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Golden Potum (9M DL)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatAB5
+[Additional]Potum HatA81C
+[Additional]Potum HatAB38
+[Armor]Adventurer's GarbA5C
+[Armor]Adventurer's GarbA44C
+[Armor]Adventurer's GarbA21C
+[Armor]Adventurer's Garb1BC
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Melancia</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Lv
+225
+Type-HPUnknownElementEarthExp
+55307
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Phasma Forest: Area 2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Flower Nectar (Bouquet)
+[Usable]Grilled Eggplant
+[Material]Salad Dressing
+[Enhancer Crysta (Blue)]Melancia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2016)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]HeadbandABC
+[Armor]Adventurer's Garb5BC
+[Armor]Adventurer's GarbABC</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Seraph Machina</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Lv
+167
+Type-HPUnknownElementLightExp
+21073
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Buried Tower: Inside</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Broken Magic Device
+[Material]Angel Heart
+[Material]Light Emitting Cloth
+[Magic Device]Angel Halo
+[Enhancer Crysta (Blue)]Seraph Machina</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Builder Golem</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Lv
+138
+Type-HPUnknownElementNeutralExp
+17564
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Huge Crysta Factory: 3rd Floor</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Strange Tool Box
+[Material]Rusted Iron Plate
+[Material]Cracked Lense
+[Material]Mysterious Magic Lantern
+[Enhancer Crysta (Red)]Builder Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Golden Potum (8M DL)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum Hat82BC
+[Additional]Potum Hat48BC
+[Additional]Potum HatA83C
+[Additional]Potum HatAB84
+[Armor]Adventurer's GarbAB63
+[Armor]Adventurer's GarbAB55
+[Armor]Adventurer's GarbA56C
+[Armor]Adventurer's GarbA37C
+[Armor]Adventurer's Garb36BC
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Golden Potum (12M DL)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Iris Armor
+[Armor]Iris Armor777</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Super Death Mushroom</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Lv
+150
+Type-HPUnknownElementDarkExp
+24871
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Monster's Forest: Animal Trail</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Mysterious Mushroom
+[Usable]Death Truffle
+[Armor]Adventurer's GarbA69C
+[Material]Mushroom Venom
+[Magic Device]Super Costero
+[Enhancer Crysta (Green)]Super Death Mushroom</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Trocostida</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Lv
+230
+Type-HPUnknownElementDarkExp
+40000
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Nov Diela Area 1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Energy Bottle EX
+[Material]Glowing Liposome
+[Material]Wriggling Latebra
+[Enhancer Crysta (Yellow)]Trocostida</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Crimsosh</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Lv
+37
+Type-HP
+22500
+ElementFireExp
+500
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Athema Ruins: Area 2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Dawn Hat
+[Armor]Adventurer's GarbABC
+[Normal Crysta]Crimsosch</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Silver Coryn (2021)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+100
+ElementNeutralExp
+1
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Tolbas GrassLand</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Warrior Helm5BC
+[Additional]Mage HatA5C
+[Additional]Scholar's GlassesAB5
+[Additional]Warrior Helm74BC
+[Additional]Mage HatA74C
+[Additional]Scholar's GlassesAB74
+[Armor]Plate Armor234
+[Material]Silver Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Stone Mercenary</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Lv
+60
+Type-HPUnknownElementEarthExp
+960
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Zoktzda Ruins : Abnormal Space</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Adventurer's GarbABC
+[Material]Pebble
+[Material]Zoktzda Stone
+[Shield]Mirror Shield
+[Special Crysta]Stone Mercenary</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Golden Potum (11M DL)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Revita III
+[Refinement Support]Refinement Powder
+[Refinement Support]Super Refinement Powder
+[Refinement Support]Hyper Refinement Powder
+[Additional]Potum Hat835051
+[Additional]Potum Hat54535
+[Additional]Potum Hat18246
+[Additional]Potum Hat378482
+[Armor]Adventurer's Garb34464
+[Armor]Adventurer's Garb823850
+[Armor]Adventurer's Garb833421
+[Armor]Adventurer's Garb49541
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Wood Pack (M)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Golden Potum (8M DL)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatA81C
+[Additional]Potum HatAB78
+[Additional]Potum Hat47BC
+[Additional]Potum HatAB75
+[Armor]Adventurer's GarbA67C
+[Armor]Adventurer's GarbAB59
+[Armor]Adventurer's GarbA3C
+[Armor]Adventurer's Garb55BC
+[Armor]Adventurer's Garb20BC
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Mithurna Lynx</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Lv
+177
+Type-HPUnknownElementLightExp
+25725
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ruins of Mt. Mithurna: Stylobate</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]White Eyepatch
+[Material]Lucid White Fur
+[Material]Cat Claw
+[Material]Lucid White Spirit Stone
+[Normal Crysta]Mithurna Lynx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Golden Potum (6M DL)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum Hat54BC
+[Additional]Potum HatA54C
+[Additional]Potum HatAB2
+[Additional]Potum HatA53C
+[Armor]Adventurer's GarbA50C
+[Armor]Adventurer's GarbAB50
+[Armor]Adventurer's GarbAB51
+[Armor]Adventurer's Garb3BC
+[Armor]Adventurer's GarbA54C
+[Armor]Adventurer's Garb20BC
+[Armor]Adventurer's GarbAB20
+[Armor]Adventurer's GarbAB42
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Golden Skeleton</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Lv
+54
+Type-HPUnknownElementNeutralExp
+840
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Zoktzda Ruins</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Adventurer's Garb26BC
+[Material]Ancient Gold Coin
+[Material]Wandering Spirit
+[Material]Skeleton Bone
+[Additional Crysta]Golden Skeleton</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Canemofish</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Lv
+210
+Type-HPUnknownElementLightExp
+39845
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Recetacula Sector: Area 1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Bowgun]Acid Gun
+[Material]Strong Copper Scale
+[Material]Crystal Pouch
+[Material]Sharp Fish Fang
+[Armor Crysta]Canemofish</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ageladanios</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Lv
+218
+Type-HP
+7000000
+ElementFireExp
+34350
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ducia Coast: Area 1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Savage Mail
+[Material]Evil Spirit Horns
+[Material]Flame of Misfortune
+[Material]Raging Soul
+[Enhancer Crysta (Blue)]Ageladanios</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ignitrus</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Lv
+251
+Type-HPUnknownElementFireExp
+49022
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Vulcani Crater Base</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Vulcani Stone
+[Material]Burning Desire
+[Material]Rhyolite
+[Special Crysta]Ignitrus
+[Katana]Combat Knife</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Limacina</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Lv
+290
+Type-HP
+0
+ElementFireExp
+71600
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Deep Sea: Zone 2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Luminous Bacteria
+[Material]Cute Marine Wing
+[Material]Seabed Serenity
+[Enhancer Crysta (Blue)]Limacina</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2018)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]RibbonAB5
+[Additional]RibbonAB38
+[Additional]RibbonA42C
+[Armor]Adventurer's GarbA5C
+[Armor]Adventurer's Garb54BC
+[Armor]Adventurer's GarbAB54
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Grimuckus</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Lv
+195
+Type-HPUnknownElementWaterExp
+30240
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Wazeero Street</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Knuckles]Mortal Katar
+[Material]Wazeero Stone
+[Material]Weird Blob
+[Ore]Mithril Ore
+[Special Crysta]Grimuckus</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Golden Potum (7M DL)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Revita IV
+[Refinement Support]Refinement Powder
+[Refinement Support]Super Refinement Powder
+[Refinement Support]Hyper Refinement Powder
+[Additional]Potum HatA5C
+[Additional]Potum HatA54C
+[Additional]Potum HatAB54
+[Additional]Potum Hat37BC
+[Armor]Adventurer's GarbA5C
+[Armor]Adventurer's GarbAB80
+[Armor]Adventurer's GarbA64C
+[Armor]Adventurer's GarbA54C
+[Armor]Adventurer's GarbA2C
+[Armor]Adventurer's GarbAB2
+[Armor]Adventurer's GarbAB6
+[Armor]Adventurer's GarbAB21
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Golden Potum (12M DL)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Iris Armor</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Persimmon Coryn</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HPUnknownElementLightExpUnknownTamableNo</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Baked Sweet Potato
+[Usable]Mashed Sweet Potato
+[Usable]Ginkgo Nut Rice
+[Usable]Dried Persimon
+[Usable]Salt-Grilled Saury
+[Usable]Matsutake Soup
+[Armor]Adventurer's Garb38BC
+[Armor]Adventurer's GarbA38C
+[Armor]Adventurer's GarbAB38
+[Armor]Adventurer's Garb39BC
+[Armor]Adventurer's GarbA39C
+[Armor]Adventurer's GarbAB39
+[Armor]Adventurer's Garb40BC
+[Armor]Adventurer's GarbA40C
+[Armor]Adventurer's GarbAB40
+[Armor]Adventurer's Garb41BC
+[Armor]Adventurer's GarbA41C
+[Armor]Adventurer's GarbAB41
+[Armor]Adventurer's Garb42BC
+[Armor]Adventurer's GarbA42C
+[Armor]Adventurer's GarbAB42
+[Material]Fallen in Fall</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Lapin The Necromancer</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Lv
+124
+Type-HPUnknownElementNeutralExp
+17222
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Trace of Dark River</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Necromancer Hood
+[Armor]Adventurer's Garb77BC
+[Material]Soft Paw
+[Material]Torn Robe
+[Material]Cracked Skull
+[Material]Lapin's Soul
+[Weapon Crysta]Lapin The Necromancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
           <t>Tortuga</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Lv
 40
@@ -714,12 +3431,12 @@
 TamableNo</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Icule Lake</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t xml:space="preserve">
 [Armor]Adventurer's GarbABC
@@ -731,13 +3448,2067 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Metal Stinger</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Lv
+82
+Type-HPUnknownElementEarthExp
+4050
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Akaku Desert: Area 2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Scorpion Tail
+[Material]Hard Scissor
+[Material]Sand Pyroxene
+[Normal Crysta]Metal Stinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Golden Potum (5M DL)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatAB5
+[Additional]Potum Hat19BC
+[Additional]Potum HatA38C
+[Additional]Potum Hat1BC
+[Armor]Adventurer's GarbA49C
+[Armor]Adventurer's GarbAB47
+[Armor]Adventurer's GarbABC
+[Armor]Adventurer's GarbAB12
+[Armor]Adventurer's GarbAB2
+[Armor]Adventurer's GarbAB40
+[Armor]Adventurer's Garb6BC
+[Armor]Adventurer's GarbAB21
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2020)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Lv
+109
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Tolbas GrassLand</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]HeadbandA5C
+[Additional]Ribbon21BC
+[Additional]Mage HatAB1
+[Armor]Adventurer's Garb61BC
+[Armor]Adventurer's GarbA41C
+[Armor]Adventurer's GarbAB1
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nightmare Potum</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Lv
+120
+Type-HP
+1500000
+ElementDarkExp
+15800
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Garden of Beginning</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[1 Handed Sword]Toy Hammer
+[Armor]Adventurer's GarbABC
+[Material]Filthy Bandage
+[Material]Purification Salt
+[Material]Potum's Soul
+[Ore]Mithril Ore</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Commander Golem</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Lv
+154
+Type-HP
+2400000
+ElementDarkExp
+20580
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Lufenas Mansion: Entrance</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Adventurer's GarbA2238
+[Material]Hard Glass
+[Material]Crimson Loincloth
+[Material]Command Radar
+[Weapon Crysta]Commander Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Wolkissa</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Lv
+257
+Type-HPUnknownElementWaterExp
+40800
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Weredragon's Throat</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Bowgun]Holy Script gun
+[Material]Cloud Cat Horn
+[Material]Cloudbow Light
+[Material]Fleecy Cloud
+[Special Crysta]Wolkissa</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2020)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Lv
+107
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Mage HatAB5
+[Additional]Ribbon28BC
+[Additional]HeadbandA25C
+[Armor]Adventurer's GarbA5C
+[Armor]Adventurer's GarbAB37
+[Armor]Adventurer's Garb1BC
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Golden Potum (6M DL)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatA3C
+[Additional]Potum HatAB54
+[Additional]Potum Hat38BC
+[Additional]Potum HatA38C
+[Armor]Adventurer's Garb51BC
+[Armor]Adventurer's GarbA3C
+[Armor]Adventurer's GarbAB3
+[Armor]Adventurer's GarbAB54
+[Armor]Adventurer's GarbA2C
+[Armor]Adventurer's GarbAB38
+[Armor]Adventurer's Garb52BC
+[Armor]Adventurer's GarbA52C
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Meteora</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Lv
+302
+Type-HP
+0
+ElementFireExp
+74656
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Menabra Plains</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[1 Handed Sword]Meteor Sword
+[Material]Tektite
+[Material]Meteoric Iron
+[Material]Abyssal Light
+[Enhancer Crysta (Green)]Meteora</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Teertocrit</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Lv
+200
+Type-HP
+7050000
+ElementFireExp
+46200
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Manor of Surprises</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Flower Nectar (Bouquet)
+[Usable]Ginger Cake
+[Usable]Barmbrack
+[Usable]Zombie Cake
+[Usable]Pumpkin Cookie
+[Usable]Jack Pudding
+[Usable]Pumpkin Candy
+[Usable]Pumpkin Soup
+[Additional]Potum Ghost Behind U
+[Enhancer Crysta (Purple)]Teertocrit</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Golden Potum (9M DL)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatA5C
+[Additional]Potum HatA82C
+[Additional]Potum HatAB82
+[Additional]Potum HatAB81
+[Additional]Potum Hat4BC
+[Additional]Potum Hat18BC
+[Additional]Potum Hat1BC
+[Armor]Adventurer's Garb5BC
+[Armor]Adventurer's GarbA82C
+[Armor]Adventurer's Garb4BC
+[Armor]Adventurer's GarbAB51
+[Armor]Adventurer's Garb38BC
+[Armor]Adventurer's GarbA38C
+[Armor]Adventurer's GarbAB36
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Dusk Machina</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Lv
+142
+Type-HPUnknownElementDarkExp
+17338
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Small Demi Machina Factory: Area 2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Monster's Big Arm
+[Material]Crimson Huge Bone
+[Material]Giant Hand Print
+[Additional Crysta]Dusk Machina</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Granny</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Lv
+88
+Type-HPUnknownElementEarthExp
+3818
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Abyss of No Return: Area 3</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Magic Charged Branch
+[Material]Ancient Big Tree
+[Material]Tree Spirit Soul
+[Staff]Bloom of Peace
+[Special Crysta]Granny</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Persimmon Coryn</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Lv
+50
+Type-HPUnknownElementLightExpUnknownTamableNo</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Baked Sweet Potato
+[Usable]Mashed Sweet Potato
+[Usable]Ginkgo Nut Rice
+[Usable]Dried Persimon
+[Usable]Salt-Grilled Saury
+[Usable]Matsutake Soup
+[Armor]Adventurer's Garb38BC
+[Armor]Adventurer's GarbA38C
+[Armor]Adventurer's GarbAB38
+[Armor]Adventurer's Garb39BC
+[Armor]Adventurer's GarbA39C
+[Armor]Adventurer's GarbAB39
+[Armor]Adventurer's Garb40BC
+[Armor]Adventurer's GarbA40C
+[Armor]Adventurer's GarbAB40
+[Armor]Adventurer's Garb41BC
+[Armor]Adventurer's GarbA41C
+[Armor]Adventurer's GarbAB41
+[Armor]Adventurer's Garb42BC
+[Armor]Adventurer's GarbA42C
+[Armor]Adventurer's GarbAB42
+[Material]Fallen in Fall</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Fantica</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Lv
+284
+Type-HP
+14777385
+ElementWaterExp
+55153
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Espuma Dome: Area 2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Seahorse Herbal Medicine
+[Material]Circular Plate
+[Material]Coral Rock
+[Enhancer Crysta (Yellow)]Fantica</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Orictoceras</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Lv
+272
+Type-HP
+13500000
+ElementEarthExp
+51200
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Kabla Jabali</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Growing Ore
+[Material]Stone Sternal Bone
+[Material]Deadly Claw
+[Enhancer Crysta (Blue)]Orictoceras</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Rampion</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Lv
+254
+Type-HPUnknownElementDarkExp
+45540
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Milcaska Falls: Army Base</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Bone Scissors
+[Material]Devil's Skull
+[Material]Poison Crystal Tail
+[Normal Crysta]Rampion</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Golden Potum (10M DL)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatAB5
+[Additional]Potum HatAB63
+[Additional]Potum Hat62BC
+[Additional]Potum Hat47BC
+[Additional]Potum HatA85C
+[Additional]Potum Hat28BC
+[Additional]Potum HatA54C
+[Additional]Potum HatA38C
+[Additional]Potum HatAB8
+[Armor]Adventurer's Garb5BC
+[Armor]Adventurer's GarbAB47
+[Armor]Adventurer's GarbAB46
+[Armor]Adventurer's Garb16BC
+[Armor]Adventurer's GarbA14C
+[Armor]Adventurer's GarbA37C
+[Armor]Adventurer's GarbAB21
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Silver Roar</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Lv
+42
+Type-HP
+14570
+ElementWaterExp
+590
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Debakcy Channel: B1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Crystal Earrings
+[Armor]Adventurer's GarbAB1
+[Material]Bead Fragment
+[Material]Fairy Feather
+[Normal Crysta]Silver Roar</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Wandering Wheel</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Lv
+163
+Type-HPUnknownElementWindExp
+20223
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Ultimea Palace: Demi Machina Storage</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Adventurer's Garb83B69
+[Material]Sticky Wax
+[Material]Heavy Wheel
+[Material]Magic Engine
+[Enhancer Crysta (Yellow)]Wandering Wheel</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sand Mole</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Lv
+50
+Type-HP
+20000
+ElementEarthExp
+380
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Centerio Highlands</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Sand Mole Meat
+[Additional]Mole Eyes
+[Material]Sand Crystal
+[Material]Sand Mole Skin</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Golden Potum (7M DL)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Revita III
+[Refinement Support]Refinement Powder
+[Refinement Support]Super Refinement Powder
+[Refinement Support]Hyper Refinement Powder
+[Additional]Potum HatAB5
+[Additional]Potum Hat82BC
+[Additional]Potum Hat71BC
+[Additional]Potum Hat1BC
+[Armor]Adventurer's GarbAB5
+[Armor]Adventurer's GarbAB64
+[Armor]Adventurer's GarbA84C
+[Armor]Adventurer's GarbAB54
+[Armor]Adventurer's Garb18BC
+[Armor]Adventurer's GarbAB38
+[Armor]Adventurer's GarbA37C
+[Armor]Adventurer's GarbA1C
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2016)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]RibbonABC
+[Additional]Mage HatAB1
+[Armor]Adventurer's GarbABC</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Golden Potum (5M DL)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatABC
+[Additional]Potum HatABC
+[Additional]Potum HatABC
+[Additional]Potum HatAB1
+[Armor]Adventurer's Garb63BC
+[Armor]Adventurer's GarbABC
+[Armor]Adventurer's GarbA29C
+[Armor]Adventurer's GarbABC
+[Armor]Adventurer's GarbA14C
+[Armor]Adventurer's GarbABC
+[Armor]Adventurer's GarbABC
+[Armor]Adventurer's GarbABC
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2019)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Lv
+104
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Tolbas GrassLand</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]HeadbandA5C
+[Additional]Ribbon21BC
+[Additional]Mage HatAB1
+[Armor]Adventurer's Garb61BC
+[Armor]Adventurer's GarbA41C
+[Armor]Adventurer's GarbAB1
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2020)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Lv
+108
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Mage HatAB28
+[Additional]Ribbon25BC
+[Additional]HeadbandA1C
+[Armor]Adventurer's Garb5BC
+[Armor]Adventurer's GarbA37C
+[Armor]Adventurer's GarbAB41
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Golden Potum (10M DL)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatA50C
+[Additional]Potum HatAB50
+[Additional]Potum HatAB62
+[Additional]Potum HatA47C
+[Additional]Potum HatAB47
+[Additional]Potum Hat85BC
+[Additional]Potum Hat38BC
+[Additional]Potum Hat6BC
+[Additional]Potum HatA1C
+[Armor]Adventurer's GarbAB5
+[Armor]Adventurer's GarbA32C
+[Armor]Adventurer's GarbAB16
+[Armor]Adventurer's Garb38BC
+[Armor]Adventurer's GarbA6C
+[Armor]Adventurer's Garb20BC
+[Armor]Adventurer's GarbA1C
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Golden Potum (11M DL)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Revita V
+[Refinement Support]Refinement Powder
+[Refinement Support]Super Refinement Powder
+[Refinement Support]Hyper Refinement Powder
+[Additional]Potum Hat484684
+[Additional]Potum Hat493418
+[Additional]Potum Hat388338
+[Additional]Potum Hat6541
+[Armor]Adventurer's Garb846751
+[Armor]Adventurer's Garb388182
+[Armor]Adventurer's Garb55353
+[Armor]Adventurer's Garb5136
+[Material]Potum Silver Coin
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Fabric Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Galegon</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Lv
+260
+Type-HPUnknownElementWindExp
+42627
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Boma Moja: Area 3</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Flying Dragon Wing
+[Material]Endless Storm
+[Material]Flying Dragon Heart
+[Enhancer Crysta (Green)]Galegon</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Amoeba Machina</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Lv
+158
+Type-HPUnknownElementWaterExp
+29000
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ultimea Sewer: Southeast</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Knuckles]Master's Tonfa
+[Material]Soft Swollen Nail
+[Material]Crooked Nucleic Acid
+[Material]Mysterious Cube
+[Enhancer Crysta (Blue)]Amoeba Machina</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Golden Potum (10M DL)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Tolbas GrassLand</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatA5C
+[Additional]Potum HatA64C
+[Additional]Potum HatAB64
+[Additional]Potum Hat63BC
+[Additional]Potum Hat46BC
+[Additional]Potum HatA46C
+[Additional]Potum HatAB46
+[Additional]Potum HatAB53
+[Additional]Potum Hat21BC
+[Armor]Adventurer's GarbA47C
+[Armor]Adventurer's Garb46BC
+[Armor]Adventurer's GarbA46C
+[Armor]Adventurer's GarbA18C
+[Armor]Adventurer's GarbAB38
+[Armor]Adventurer's Garb37BC
+[Armor]Adventurer's GarbAB6
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Colon Commander</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Lv
+33
+Type-HP
+22000
+ElementFireExp
+440
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Strum Road</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Revita I
+[Additional]Colon Met
+[Armor]Adventurer's Garb2BC
+[Material]Bundled Leaves
+[Material]Split Wooden Helm
+[Material]Colon Skin
+[Armor Crysta]Colon Commander</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Corroded Knight Captain</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Lv
+128
+Type-HPUnknownElementDarkExp
+8738
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Dark Manor: Area 1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Stimulant
+[Additional]Half Face Mask
+[Material]Sharp Shield Bit
+[Material]Torn Captain Crest
+[Additional Crysta]Corroded Knight Captain</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Golden Potum (7M DL)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Revita V
+[Refinement Support]Refinement Powder
+[Refinement Support]Super Refinement Powder
+[Refinement Support]Hyper Refinement Powder
+[Additional]Potum HatA46C
+[Additional]Potum Hat54BC
+[Additional]Potum HatAB21
+[Additional]Potum HatA1C
+[Armor]Adventurer's GarbAB83
+[Armor]Adventurer's GarbAB2
+[Armor]Adventurer's Garb37BC
+[Armor]Adventurer's GarbAB37
+[Armor]Adventurer's Garb6BC
+[Armor]Adventurer's Garb21BC
+[Armor]Adventurer's GarbA21C
+[Armor]Adventurer's GarbAB1
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Grim Reaper Scarecrow</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Lv
+224
+Type-HPUnknownElementWindExp
+35140
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Witch's Woods Area 2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Tattered Cloak
+[Material]Sturdy Core
+[Material]Crow Feather
+[Material]Scarecrow's Emotion
+[Armor Crysta]Grim Reaper Scarecrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Kuffania</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Lv
+250
+Type-HPUnknownElementUnknownExp
+55900
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Risus Valley: Area 2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Bat Candy
+[Usable]Battie Scone
+[Material]Poison Blood
+[Enhancer Crysta (Blue)]Kuffania</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Persimmon Coryn</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Lv
+75
+Type-HPUnknownElementLightExpUnknownTamableNo</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Baked Sweet Potato
+[Usable]Mashed Sweet Potato
+[Usable]Ginkgo Nut Rice
+[Usable]Dried Persimon
+[Usable]Salt-Grilled Saury
+[Usable]Matsutake Soup
+[Armor]Adventurer's Garb38BC
+[Armor]Adventurer's GarbA38C
+[Armor]Adventurer's GarbAB38
+[Armor]Adventurer's Garb39BC
+[Armor]Adventurer's GarbA39C
+[Armor]Adventurer's GarbAB39
+[Armor]Adventurer's Garb40BC
+[Armor]Adventurer's GarbA40C
+[Armor]Adventurer's GarbAB40
+[Armor]Adventurer's Garb41BC
+[Armor]Adventurer's GarbA41C
+[Armor]Adventurer's GarbAB41
+[Armor]Adventurer's Garb42BC
+[Armor]Adventurer's GarbA42C
+[Armor]Adventurer's GarbAB42
+[Material]Fallen in Fall</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Vodre</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Lv
+281
+Type-HPUnknownElementWaterExp
+67680
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Puerta Islands: Area 2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Moist Thin Fin
+[Material]Aquamarine Pearl
+[Material]Moist Thin Wing
+[Special Crysta]Vodre</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Espectro</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Lv
+221
+Type-HPUnknownElementDarkExp
+33600
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Arche Valley: Area 1</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Metal Shackles
+[Material]Vengeful Soul
+[Material]Skull Mask Fragment
+[Enhancer Crysta (Purple)]Espectro</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>King Potum</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Lv
+50
+Type-HP
+8000
+ElementNeutralExp
+320
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Athema Ruins: Area 1</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Hard Apple
+[Additional]Hair Band
+[Material]Bead Fragment
+[Material]Potum Nail
+[Normal Crysta]King Potum</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2017)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Adventurer's GarbAB5
+[Armor]Adventurer's GarbABC
+[Armor]Adventurer's GarbABC</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Outer World Wolf</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Lv
+70
+Type-HPUnknownElementLightExp
+4800
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Gate to Another World: Area 1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Oracle RobeABC
+[Material]Space Wolf Horn
+[Material]Space Wolf Fur
+[Material]Space Wolf Claw</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Frenzy Viola</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Lv
+198
+Type-HPUnknownElementEarthExp
+42126
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Morthell Swell: Area 3</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Mysterious Skull
+[Material]Temptation Flower
+[Material]Dark Red Fluid
+[Special Crysta]Frenzy Viola</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Grylle</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Lv
+90
+Type-HP
+150000
+ElementDarkExp
+1720
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Eyepatch (Cat)
+[Material]Strengthened Armor
+[Additional Crysta]Grylle</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2016)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Mage HatAB5
+[Additional]RibbonABC
+[Armor]Adventurer's Garb1BC</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Rhinosaur</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Lv
+233
+Type-HPUnknownElementEarthExp
+41000
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Fugitive Lake Swamp: Area 3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Hard Armor Skin
+[Material]Adamantite Horn
+[Material]Bold Gaze
+[Halberd]Drill Shaft
+[Enhancer Crysta (Blue)]Rhinosaur</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Golden Potum (8M DL)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum Hat81BC
+[Additional]Potum HatAB47
+[Additional]Potum Hat75BC
+[Additional]Potum HatA37C
+[Armor]Adventurer's Garb65BC
+[Armor]Adventurer's GarbA70C
+[Armor]Adventurer's GarbAB67
+[Armor]Adventurer's Garb56BC
+[Armor]Adventurer's GarbAB19
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Salamander</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Lv
+132
+Type-HP
+2000000
+ElementFireExp
+20242
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Blazing Graben: Upper</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Scorching Orange
+[Additional]Ignis Horns
+[Material]Heated Sword Fin
+[Material]Scorching Scale
+[Enhancer Crysta (Blue)]Salamander</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Thug Golem</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Lv
+191
+Type-HPUnknownElementWaterExp
+29190
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Dark Dragon Shrine: Middle</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Ancient Ingot
+[Material]Pancake Ice Flower
+[Material]Shining Monoeye
+[Armor Crysta]Thug Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2019)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Lv
+102
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Mage HatAB5
+[Additional]Ribbon28BC
+[Additional]HeadbandA25C
+[Armor]Adventurer's GarbA5C
+[Armor]Adventurer's GarbAB37
+[Armor]Adventurer's Garb1BC
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Golden Potum (9M DL)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum HatA80C
+[Additional]Potum HatA54C
+[Additional]Potum HatAB18
+[Additional]Potum Hat38BC
+[Additional]Potum HatA40C
+[Additional]Potum HatAB1
+[Armor]Adventurer's GarbAB5
+[Armor]Adventurer's GarbAB82
+[Armor]Adventurer's GarbAB4
+[Armor]Adventurer's Garb51BC
+[Armor]Adventurer's Garb36BC
+[Armor]Adventurer's GarbA1C
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2017)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Adventurer's GarbA5C
+[Armor]Adventurer's Garb38BC
+[Armor]Adventurer's GarbAB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Lord of Nezim</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Lv
+227
+Type-HPUnknownElementWaterExp
+39200
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Nezim Wetlands</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Crystal Horns
+[Material]Powerful Jagged Tooth
+[Material]Slimy Hide
+[Material]Charred Salamander Meat
+[Additional Crysta]Lord of Nezim</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>Dark Mushroom</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Lv
 30
@@ -748,12 +5519,12 @@
 TamableNo</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Isthmus Of Kaus</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t xml:space="preserve">
 [Usable]Poisonous Mushroom
@@ -765,6 +5536,1098 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Silver Coryn (2021)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+100
+ElementNeutralExp
+1
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Warrior Helm67BC
+[Additional]Mage HatA67C
+[Additional]Scholar's GlassesAB67
+[Additional]Warrior Helm21BC
+[Additional]Mage HatA21C
+[Additional]Scholar's GlassesAB21
+[Armor]Plate Armor234
+[Material]Silver Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Mega Alpoca</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Lv
+204
+Type-HPUnknownElementNeutralExp
+34100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Labilans Sector: Area 3</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Fur Collar
+[Material]Alpoca Fur
+[Material]Smooth Fine Hair
+[Ore]Mithril Ore
+[Enhancer Crysta (Yellow)]Mega Alpoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Tappler</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Lv
+218
+Type-HPUnknownElementDarkExp
+37400
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Ruins of Urban Elban</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Strange Dust
+[Material]Glow Pebble
+[Material]Geometric Metal Bit
+[Enhancer Crysta (Blue)]Tappler</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Brassozard</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Lv
+263
+Type-HPUnknownElementEarthExp
+42200
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Operation Zone: Climate Control Area</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Bow]Red-Winged Dragon Bow
+[Material]Brassozard Claw
+[Material]Wyvern Horn
+[Ore]Damascus Ore
+[Enhancer Crysta (Blue)]Brassozard</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2019)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]HeadbandA21C
+[Additional]Mage HatAB25
+[Additional]Ribbon1BC
+[Armor]Adventurer's GarbAB5
+[Armor]Adventurer's GarbA61C
+[Armor]Adventurer's Garb37BC
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Don Yeti</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Lv
+103
+Type-HPUnknownElementEarthExp
+9482
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Polde Ice Valley</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Ear Muff
+[Armor]Adventurer's GarbABC
+[Material]Thick Fur
+[Material]Cold Wood Stick
+[Material]Cracked Big Axe
+[Special Crysta]Don Yeti</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Concert Potum</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Lv
+180
+Type-HPUnknownElementNeutralExp
+269
+TamableYes</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Pom Taming Land</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Usable]Sweet Apple
+[Usable]Yellow Apple
+[Usable]Hard Apple
+[Material]Green Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Caspy</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Lv
+77
+Type-HPUnknownElementDarkExp
+2720
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Ancient Empress Tomb: Area 2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Cat-Ear Hood1BC
+[Armor]Adventurer's GarbA495
+[Normal Crysta]Caspy</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Demonic Eye</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Lv
+212
+Type-HP
+10000000
+ElementWindExp
+75834
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Dea Ruinea</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Bizarre Skin
+[Material]Demon Serum
+[Material]Cursed Evil Eye
+[Enhancer Crysta (Green)]Demonic Eye</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Golden Potum (11M DL)</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Revita IV
+[Refinement Support]Refinement Powder
+[Refinement Support]Super Refinement Powder
+[Refinement Support]Hyper Refinement Powder
+[Additional]Potum Hat34182
+[Additional]Potum Hat463749
+[Additional]Potum Hat213850
+[Additional]Potum Hat115
+[Armor]Adventurer's Garb465146
+[Armor]Adventurer's Garb38335
+[Armor]Adventurer's Garb818238
+[Armor]Adventurer's Garb534954
+[Material]Potum Silver Coin
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Big Mask</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Lv
+70
+Type-HPUnknownElementWindExp
+2400
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Haotas Ravine</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Stier
+[Material]Ravine Dew
+[Material]Strong Vine
+[Material]Steel Seed Coat</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Bubble Bogey</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Lv
+177
+Type-HPUnknownElementFireExp
+26754
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Barbaros Corridor</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Dagger]Fallen Angel Dagger
+[Material]Cracked Halo
+[Material]Red Fallen Angel Halo
+[Material]Mysterious Shiny Cloth
+[Enhancer Crysta (Red)]Bubble Bogey</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Silver Coryn (2015)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HPUnknownElementLightExpUnknownTamableNo</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Ribbon
+[Additional]RibbonABC
+[Armor]Adventurer's Garb5BC
+[Armor]Adventurer's Garb49BC
+[Armor]Adventurer's Garb40BC
+[Armor]Adventurer's Garb1BC</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Daddy Finpen</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Lv
+123
+Type-HPUnknownElementWaterExp
+8000
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Spring of Rebirth: Middle</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Adventurer's Garb1229C
+[Material]Clean Water
+[Material]Daddy Soul
+[Material]Yellow Beak
+[Enhancer Crysta (Green)]Daddy Finpen</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Gordo</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Lv
+242
+Type-HPUnknownElementLightExp
+43700
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Eumano Glade</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Cracked Acorn Hat
+[Material]Huge Acorn
+[Material]Dream Fragment
+[Enhancer Crysta (Yellow)]Gordo</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2017)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Darkanon Plain</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Adventurer's GarbABC
+[Armor]Adventurer's GarbABC
+[Armor]Adventurer's Garb1BC</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Giant Boar</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Lv
+52
+Type-HPUnknownElementEarthExp
+800
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Nisel Mountain</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Adventurer's GarbABC
+[Material]Animal Skin
+[Material]Sturdy Fur
+[Additional Crysta]Giant Boar</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2019)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Lv
+101
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Yorl Highlands</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Ribbon5BC
+[Additional]HeadbandA28C
+[Additional]Mage HatAB21
+[Armor]Adventurer's GarbAB61
+[Armor]Adventurer's Garb41BC
+[Armor]Adventurer's GarbA1C
+[Material]Golden Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Outer World Wolf</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Lv
+70
+Type-HPUnknownElementLightExp
+4800
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Gate to Another World: Area 2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Oracle RobeABC
+[Material]Space Wolf Horn
+[Material]Space Wolf Fur
+[Material]Space Wolf Claw</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Carbuncle</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Lv
+183
+Type-HPUnknownElementFireExp
+27200
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Hall of Construction Gods</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[2 Handed Sword]Carbuncle Edge
+[Material]Carbuncle Fur
+[Material]Shining Mirror
+[Material]Carbuncle Claw
+[Normal Crysta]Carbuncle</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Silver Coryn (2021)</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+100
+ElementNeutralExp
+1
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Scholar's GlassesAB82
+[Additional]Mage HatA83C
+[Additional]Warrior Helm73BC
+[Additional]Mage HatA73C
+[Additional]Scholar's GlassesAB73
+[Additional]Warrior Helm20BC
+[Armor]Plate Armor234
+[Material]Silver Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Golden Potum (5M DL)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum Hat5BC
+[Additional]Potum HatA44C
+[Additional]Potum HatA28C
+[Additional]Potum Hat21BC
+[Armor]Adventurer's GarbA5C
+[Armor]Adventurer's GarbA47C
+[Armor]Adventurer's Garb71BC
+[Armor]Adventurer's GarbAB35
+[Armor]Straye GarbABC
+[Armor]Adventurer's Garb37BC
+[Armor]Adventurer's Garb21BC
+[Armor]Adventurer's Garb9BC
+[Armor]Adventurer's Garb1BC
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Sand Bandits Leader</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Lv
+215
+Type-HPUnknownElementEarthExp
+48500
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Geist Desert: Area 3</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Sand Bandit Mask
+[Material]Sand Bandits Bandage
+[Material]Leader's Hair Accessory
+[Material]Blood Stained Billhook
+[Enhancer Crysta (Purple)]Sand Bandits Leader</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Exdocus</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Lv
+266
+Type-HPUnknownElementDarkExp
+50286
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Stairway to Vital Point</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Material]Solid Vertebra
+[Material]Strange Eye
+[Material]Stairway Pebble
+[Enhancer Crysta (Yellow)]Exdocus</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Golden Coryn (2017)</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+10000
+ElementNeutralExp
+20
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Adventurer's Garb5BC
+[Armor]Adventurer's GarbABC
+[Armor]Adventurer's GarbA1C</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Golden Potum (10M DL)</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Additional]Potum Hat5BC
+[Additional]Potum Hat64BC
+[Additional]Potum HatA63C
+[Additional]Potum HatA48C
+[Additional]Potum HatAB48
+[Additional]Potum HatAB18
+[Additional]Potum HatA20C
+[Additional]Potum Hat42BC
+[Additional]Potum HatAB1
+[Armor]Adventurer's GarbA64C
+[Armor]Adventurer's GarbAB64
+[Armor]Adventurer's GarbAB48
+[Armor]Adventurer's Garb47BC
+[Armor]Adventurer's Garb54BC
+[Armor]Adventurer's Garb18BC
+[Armor]Adventurer's GarbA38C
+[Armor]Adventurer's GarbAB1
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Shining Gentleman</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Lv
+82
+Type-HPUnknownElementLightExp
+6000
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Lost Town: Square</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Adventurer's GarbABC
+[Bowgun]Revolver
+[Material]Lost Footstep
+[Material]Polyester Cloth
+[Special Crysta]Shining Gentleman</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Golden Potum (12M DL)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Tolbas GrassLand</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Armor]Iris Armor</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Golden Potum (7M DL)</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+30
+ElementLightExp
+100
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Rakau Plains</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Revita II
+[Refinement Support]Refinement Powder
+[Refinement Support]Super Refinement Powder
+[Refinement Support]Hyper Refinement Powder
+[Additional]Potum Hat5BC
+[Additional]Potum Hat21BC
+[Additional]Potum HatA21C
+[Additional]Potum HatAB1
+[Armor]Adventurer's Garb5BC
+[Armor]Adventurer's GarbAB84
+[Armor]Adventurer's Garb54BC
+[Armor]Adventurer's GarbA18C
+[Armor]Adventurer's GarbAB18
+[Armor]Adventurer's GarbA38C
+[Armor]Adventurer's GarbA6C
+[Armor]Adventurer's Garb1BC
+[Material]Potum Bronze Coin
+[Material]Potum Gold Coin
+[Material]Medicine Pack (M)
+[Material]Fabric Pack (S)
+[Material]Fabric Pack (L)
+[Material]Wood Pack (M)
+[Material]Metal Pack (S)
+[Material]Metal Pack (L)
+[Material]Beast Pack (S)
+[Material]Beast Pack (L)
+[Material]Potum Silver Coin
+[Material]Medicine Pack (S)
+[Material]Medicine Pack (L)
+[Material]Fabric Pack (M)
+[Material]Wood Pack (S)
+[Material]Wood Pack (L)
+[Material]Metal Pack (M)
+[Material]Beast Pack (M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Silver Coryn (2021)</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Lv
+100
+Type-HP
+100
+ElementNeutralExp
+1
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Wanderer's Plain</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Apple
+[Additional]Warrior Helm54BC
+[Additional]Mage HatA54C
+[Additional]Scholar's GlassesAB54
+[Additional]Warrior Helm1BC
+[Additional]Mage HatA1C
+[Additional]Scholar's GlassesAB1
+[Armor]Plate Armor234
+[Material]Silver Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Bullamius</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Lv
+239
+Type-HPUnknownElementEarthExp
+42800
+TamableNo</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Storage Yard: Area 2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+[Usable]Monkey Energy
+[Knuckles]Ferocious Beast Claws
+[Material]Sharp Monkey Horn
+[Material]Monkey Fang
+[Enhancer Crysta (Blue)]Bullamius</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
